--- a/docker网络备注/docker network 备忘.xlsx
+++ b/docker网络备注/docker network 备忘.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,31 +51,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主机实体网卡虚拟，在同一个物理网卡上虚拟出多个网卡，在创建容器时，需要指定网段和网关，并且都得是真实存在的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似bridge，多一个key-value 数据库记录哪些是使用overlay网络容器，在每个节点的守护进程添加数据库连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨主机用macvlan和overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/gispathfinder/p/5871043.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/3eb7448adea0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>macvlan</t>
-  </si>
-  <si>
-    <t>主机实体网卡虚拟，在同一个物理网卡上虚拟出多个网卡，在创建容器时，需要指定网段和网关，并且都得是真实存在的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>overlay</t>
-  </si>
-  <si>
-    <t>类似bridge，多一个key-value 数据库记录哪些是使用overlay网络容器，在每个节点的守护进程添加数据库连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/3eb7448adea0</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/gispathfinder/p/5871043.html</t>
-  </si>
-  <si>
-    <t>跨主机用macvlan和overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云不提供网关导致macvlan无法配置，建议使用host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,38 +462,43 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
